--- a/vacation-rental-testing/src/Output/vacation_rental_test_report.xlsx
+++ b/vacation-rental-testing/src/Output/vacation_rental_test_report.xlsx
@@ -541,7 +541,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7cb064706f00&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
+          <t>Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7763fca2b9e0&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
         </is>
       </c>
     </row>
@@ -563,7 +563,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7cb0647316d0&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
+          <t>Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Read timed out. (read timeout=10)</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7cb064706f00&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
+          <t>Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7763fca2b9e0&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
         </is>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/portugal/lisbon-district/lisbon</t>
+          <t>https://www.alojamiento.io/all/italy/veneto/venice</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1535,7 +1535,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/italy/veneto/venice</t>
+          <t>https://www.alojamiento.io/all/portugal/porto-district/porto</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1557,7 +1557,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/spain/valencian-community/benidorm</t>
+          <t>https://www.alojamiento.io/all/andorra/andorra-la-vella/andorra-la-vella</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1579,7 +1579,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/france/provence</t>
+          <t>https://www.alojamiento.io/all/spain/catalonia/barcelona</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1601,7 +1601,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/portugal/porto-district/porto</t>
+          <t>https://www.alojamiento.io/all/spain/basque-country/bilbao</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1623,7 +1623,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/spain/basque-country/bilbao</t>
+          <t>https://www.alojamiento.io/all/spain/balearic-islands/palma-de-mallorca</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1645,7 +1645,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/morocco/marrakech-safi/marrakech</t>
+          <t>https://www.alojamiento.io/all/spain/valencian-community/benidorm</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1667,7 +1667,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid</t>
+          <t>https://www.alojamiento.io/all/spain/andalusia/seville</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1689,7 +1689,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/spain/catalonia/barcelona</t>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1711,7 +1711,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/portugal/algarve</t>
+          <t>https://www.alojamiento.io/all/france/provence</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1733,7 +1733,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/spain/andalusia/seville</t>
+          <t>https://www.alojamiento.io/all/portugal/algarve</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1755,7 +1755,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/spain/balearic-islands/palma-de-mallorca</t>
+          <t>https://www.alojamiento.io/all/portugal/lisbon-district/lisbon</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1799,7 +1799,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/andorra/andorra-la-vella/andorra-la-vella</t>
+          <t>https://www.alojamiento.io/all/morocco/marrakech-safi/marrakech</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1821,7 +1821,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-4960172&amp;guests=2&amp;search_string=Lisbon,%20Portugal&amp;referrer_page=home&amp;menu_id=1733889050463&amp;referral_id=0-BC-4960172&amp;published=true&amp;dest_id=4960172&amp;owner_id=4960172&amp;property_country=PT&amp;at=api&amp;eplId=6338373&amp;upat=2023-10-03T11%3A01%3A12.176241%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-2110069&amp;guests=2&amp;search_string=Venice,%20Italy&amp;referrer_page=home&amp;menu_id=1733889826822&amp;referral_id=0-BC-2110069&amp;published=true&amp;dest_id=2110069&amp;owner_id=2110069&amp;property_country=IT&amp;at=api&amp;eplId=6049646&amp;upat=2023-08-16T13%3A11%3A36.422046%2B00%3A00</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1843,7 +1843,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/property/light-lovers-apartment/BC-4960172</t>
+          <t>https://www.alojamiento.io/property/accademia-terrazza/BC-2110069</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1865,7 +1865,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/portugal/lisbon-district</t>
+          <t>https://www.alojamiento.io/all/italy/veneto/venice/179981</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1887,7 +1887,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/portugal/lisbon-district/principe-real</t>
+          <t>https://www.alojamiento.io/all/italy/veneto/venice/dorsoduro</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1909,7 +1909,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-4960172&amp;guests=2&amp;search_string=Lisbon,%20Portugal&amp;referrer_page=home&amp;menu_id=1733889050463&amp;referral_id=0-BC-4960172&amp;published=true&amp;dest_id=4960172&amp;owner_id=4960172&amp;property_country=PT&amp;at=api&amp;eplId=6338373&amp;upat=2023-10-03T11%3A01%3A12.176241%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-2110069&amp;guests=2&amp;search_string=Venice,%20Italy&amp;referrer_page=home&amp;menu_id=1733889826822&amp;referral_id=0-BC-2110069&amp;published=true&amp;dest_id=2110069&amp;owner_id=2110069&amp;property_country=IT&amp;at=api&amp;eplId=6049646&amp;upat=2023-08-16T13%3A11%3A36.422046%2B00%3A00</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1931,7 +1931,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-4960172&amp;guests=2&amp;search_string=Lisbon,%20Portugal&amp;referrer_page=home&amp;menu_id=1733889050463&amp;referral_id=0-BC-4960172&amp;published=true&amp;dest_id=4960172&amp;owner_id=4960172&amp;property_country=PT&amp;at=api&amp;eplId=6338373&amp;upat=2023-10-03T11%3A01%3A12.176241%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-2110069&amp;guests=2&amp;search_string=Venice,%20Italy&amp;referrer_page=home&amp;menu_id=1733889826822&amp;referral_id=0-BC-2110069&amp;published=true&amp;dest_id=2110069&amp;owner_id=2110069&amp;property_country=IT&amp;at=api&amp;eplId=6049646&amp;upat=2023-08-16T13%3A11%3A36.422046%2B00%3A00</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1953,7 +1953,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-61111676087&amp;guests=2&amp;search_string=Baixa,%20Lisbon%20District,%20Portugal&amp;referrer_page=home&amp;menu_id=1733889050463&amp;referral_id=1-HA-61111676087&amp;published=true&amp;dest_id=109613482&amp;owner_id=109613482&amp;property_country=PT&amp;at=api&amp;eplId=179463&amp;epc=c001&amp;upat=2024-11-28T05%3A42%3A40.521769%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-61111682273&amp;guests=2&amp;search_string=Dorsoduro,%20Venice,%20Veneto,%20Italy&amp;referrer_page=home&amp;menu_id=1733889826822&amp;referral_id=1-HA-61111682273&amp;published=true&amp;dest_id=109818346&amp;owner_id=109818346&amp;property_country=IT&amp;at=api&amp;eplId=6049646&amp;epc=c001&amp;upat=2024-11-28T06%3A16%3A06.469811%2B00%3A00</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1975,7 +1975,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/property/carmo-43-apartment-403/HA-61111676087</t>
+          <t>https://www.alojamiento.io/property/dimora-orlando-with-private-courtyard/HA-61111682273</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1997,7 +1997,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/portugal/lisbon-district</t>
+          <t>https://www.alojamiento.io/all/italy/veneto/venice/179981</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2019,7 +2019,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/portugal/lisbon-district/baixa</t>
+          <t>https://www.alojamiento.io/all/italy/veneto/venice/dorsoduro</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2041,7 +2041,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-61111676087&amp;guests=2&amp;search_string=Baixa,%20Lisbon%20District,%20Portugal&amp;referrer_page=home&amp;menu_id=1733889050463&amp;referral_id=1-HA-61111676087&amp;published=true&amp;dest_id=109613482&amp;owner_id=109613482&amp;property_country=PT&amp;at=api&amp;eplId=179463&amp;epc=c001&amp;upat=2024-11-28T05%3A42%3A40.521769%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-61111682273&amp;guests=2&amp;search_string=Dorsoduro,%20Venice,%20Veneto,%20Italy&amp;referrer_page=home&amp;menu_id=1733889826822&amp;referral_id=1-HA-61111682273&amp;published=true&amp;dest_id=109818346&amp;owner_id=109818346&amp;property_country=IT&amp;at=api&amp;eplId=6049646&amp;epc=c001&amp;upat=2024-11-28T06%3A16%3A06.469811%2B00%3A00</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2063,7 +2063,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-61111676087&amp;guests=2&amp;search_string=Baixa,%20Lisbon%20District,%20Portugal&amp;referrer_page=home&amp;menu_id=1733889050463&amp;referral_id=1-HA-61111676087&amp;published=true&amp;dest_id=109613482&amp;owner_id=109613482&amp;property_country=PT&amp;at=api&amp;eplId=179463&amp;epc=c001&amp;upat=2024-11-28T05%3A42%3A40.521769%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-61111682273&amp;guests=2&amp;search_string=Dorsoduro,%20Venice,%20Veneto,%20Italy&amp;referrer_page=home&amp;menu_id=1733889826822&amp;referral_id=1-HA-61111682273&amp;published=true&amp;dest_id=109818346&amp;owner_id=109818346&amp;property_country=IT&amp;at=api&amp;eplId=6049646&amp;epc=c001&amp;upat=2024-11-28T06%3A16%3A06.469811%2B00%3A00</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2085,7 +2085,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-2309279&amp;guests=2&amp;search_string=Lisbon,%20Portugal&amp;referrer_page=home&amp;menu_id=1733889050463&amp;referral_id=2-BC-2309279&amp;published=true&amp;dest_id=2309279&amp;owner_id=2309279&amp;property_country=PT&amp;at=api&amp;eplId=553248633981727341&amp;upat=2023-12-22T07%3A33%3A44.849755%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-5091527&amp;guests=2&amp;search_string=Venice,%20Italy&amp;referrer_page=home&amp;menu_id=1733889826822&amp;referral_id=2-BC-5091527&amp;published=true&amp;dest_id=5091527&amp;owner_id=5091527&amp;property_country=IT&amp;at=api&amp;eplId=6046564&amp;upat=2023-08-22T05%3A46%3A33.996030%2B00%3A00</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2107,7 +2107,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/property/migas-lisbon-house/BC-2309279</t>
+          <t>https://www.alojamiento.io/property/ca-roberta/BC-5091527</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2129,7 +2129,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/portugal/lisbon-district</t>
+          <t>https://www.alojamiento.io/all/italy/veneto/venice/179981</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2151,7 +2151,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/portugal/lisbon-district/lisbon-old-town</t>
+          <t>https://www.alojamiento.io/all/italy/veneto/venice/santa-croce</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2173,7 +2173,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-2309279&amp;guests=2&amp;search_string=Lisbon,%20Portugal&amp;referrer_page=home&amp;menu_id=1733889050463&amp;referral_id=2-BC-2309279&amp;published=true&amp;dest_id=2309279&amp;owner_id=2309279&amp;property_country=PT&amp;at=api&amp;eplId=553248633981727341&amp;upat=2023-12-22T07%3A33%3A44.849755%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-5091527&amp;guests=2&amp;search_string=Venice,%20Italy&amp;referrer_page=home&amp;menu_id=1733889826822&amp;referral_id=2-BC-5091527&amp;published=true&amp;dest_id=5091527&amp;owner_id=5091527&amp;property_country=IT&amp;at=api&amp;eplId=6046564&amp;upat=2023-08-22T05%3A46%3A33.996030%2B00%3A00</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2195,7 +2195,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-2309279&amp;guests=2&amp;search_string=Lisbon,%20Portugal&amp;referrer_page=home&amp;menu_id=1733889050463&amp;referral_id=2-BC-2309279&amp;published=true&amp;dest_id=2309279&amp;owner_id=2309279&amp;property_country=PT&amp;at=api&amp;eplId=553248633981727341&amp;upat=2023-12-22T07%3A33%3A44.849755%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-5091527&amp;guests=2&amp;search_string=Venice,%20Italy&amp;referrer_page=home&amp;menu_id=1733889826822&amp;referral_id=2-BC-5091527&amp;published=true&amp;dest_id=5091527&amp;owner_id=5091527&amp;property_country=IT&amp;at=api&amp;eplId=6046564&amp;upat=2023-08-22T05%3A46%3A33.996030%2B00%3A00</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2217,7 +2217,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-2098823&amp;guests=2&amp;search_string=Lisbon,%20Portugal&amp;referrer_page=home&amp;menu_id=1733889050463&amp;referral_id=3-BC-2098823&amp;published=true&amp;dest_id=2098823&amp;owner_id=2098823&amp;property_country=PT&amp;at=api&amp;eplId=553248635976381646&amp;upat=2024-08-06T11%3A20%3A39.100279%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-447633&amp;guests=2&amp;search_string=Venice,%20Italy&amp;referrer_page=home&amp;menu_id=1733889826822&amp;referral_id=3-BC-447633&amp;published=true&amp;dest_id=447633&amp;owner_id=447633&amp;property_country=IT&amp;at=api&amp;eplId=6005309&amp;upat=2023-08-16T13%3A07%3A15.880032%2B00%3A00</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2239,7 +2239,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/property/mouraria-apartment/BC-2098823</t>
+          <t>https://www.alojamiento.io/property/appartamenti-del-dose/BC-447633</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2261,7 +2261,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/portugal/lisbon-district</t>
+          <t>https://www.alojamiento.io/all/italy/veneto/venice/179981</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2283,7 +2283,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/portugal/lisbon-district/socorro</t>
+          <t>https://www.alojamiento.io/all/italy/veneto/venice/cannaregio</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2305,7 +2305,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-2098823&amp;guests=2&amp;search_string=Lisbon,%20Portugal&amp;referrer_page=home&amp;menu_id=1733889050463&amp;referral_id=3-BC-2098823&amp;published=true&amp;dest_id=2098823&amp;owner_id=2098823&amp;property_country=PT&amp;at=api&amp;eplId=553248635976381646&amp;upat=2024-08-06T11%3A20%3A39.100279%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-447633&amp;guests=2&amp;search_string=Venice,%20Italy&amp;referrer_page=home&amp;menu_id=1733889826822&amp;referral_id=3-BC-447633&amp;published=true&amp;dest_id=447633&amp;owner_id=447633&amp;property_country=IT&amp;at=api&amp;eplId=6005309&amp;upat=2023-08-16T13%3A07%3A15.880032%2B00%3A00</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2327,7 +2327,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-2098823&amp;guests=2&amp;search_string=Lisbon,%20Portugal&amp;referrer_page=home&amp;menu_id=1733889050463&amp;referral_id=3-BC-2098823&amp;published=true&amp;dest_id=2098823&amp;owner_id=2098823&amp;property_country=PT&amp;at=api&amp;eplId=553248635976381646&amp;upat=2024-08-06T11%3A20%3A39.100279%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-447633&amp;guests=2&amp;search_string=Venice,%20Italy&amp;referrer_page=home&amp;menu_id=1733889826822&amp;referral_id=3-BC-447633&amp;published=true&amp;dest_id=447633&amp;owner_id=447633&amp;property_country=IT&amp;at=api&amp;eplId=6005309&amp;upat=2023-08-16T13%3A07%3A15.880032%2B00%3A00</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2349,7 +2349,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-3726292&amp;guests=2&amp;search_string=Santa%20Maria%20Maior,%20Lisbon,%20Lisbon%20District,%20Portugal&amp;referrer_page=home&amp;menu_id=1733889050463&amp;referral_id=4-BC-3726292&amp;published=true&amp;dest_id=3726292&amp;owner_id=3726292&amp;property_country=PT&amp;at=api&amp;eplId=3000662134&amp;upat=2024-01-22T22%3A44%3A00.988976%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-347441&amp;guests=2&amp;search_string=Venice,%20Italy&amp;referrer_page=home&amp;menu_id=1733889826822&amp;referral_id=4-BC-347441&amp;published=true&amp;dest_id=347441&amp;owner_id=347441&amp;property_country=IT&amp;at=api&amp;eplId=6005315&amp;upat=2023-08-16T13%3A20%3A49.947480%2B00%3A00</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2371,7 +2371,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/property/flh-downtown-amazing-flat/BC-3726292</t>
+          <t>https://www.alojamiento.io/property/locanda-delle-acque/BC-347441</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2393,7 +2393,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/portugal/lisbon-district</t>
+          <t>https://www.alojamiento.io/all/italy/veneto/venice/179981</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2415,7 +2415,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/portugal/lisbon-district/santa-maria-maior</t>
+          <t>https://www.alojamiento.io/all/italy/veneto/venice/san-marco</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2437,7 +2437,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-3726292&amp;guests=2&amp;search_string=Santa%20Maria%20Maior,%20Lisbon,%20Lisbon%20District,%20Portugal&amp;referrer_page=home&amp;menu_id=1733889050463&amp;referral_id=4-BC-3726292&amp;published=true&amp;dest_id=3726292&amp;owner_id=3726292&amp;property_country=PT&amp;at=api&amp;eplId=3000662134&amp;upat=2024-01-22T22%3A44%3A00.988976%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-347441&amp;guests=2&amp;search_string=Venice,%20Italy&amp;referrer_page=home&amp;menu_id=1733889826822&amp;referral_id=4-BC-347441&amp;published=true&amp;dest_id=347441&amp;owner_id=347441&amp;property_country=IT&amp;at=api&amp;eplId=6005315&amp;upat=2023-08-16T13%3A20%3A49.947480%2B00%3A00</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2459,7 +2459,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-3726292&amp;guests=2&amp;search_string=Santa%20Maria%20Maior,%20Lisbon,%20Lisbon%20District,%20Portugal&amp;referrer_page=home&amp;menu_id=1733889050463&amp;referral_id=4-BC-3726292&amp;published=true&amp;dest_id=3726292&amp;owner_id=3726292&amp;property_country=PT&amp;at=api&amp;eplId=3000662134&amp;upat=2024-01-22T22%3A44%3A00.988976%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-347441&amp;guests=2&amp;search_string=Venice,%20Italy&amp;referrer_page=home&amp;menu_id=1733889826822&amp;referral_id=4-BC-347441&amp;published=true&amp;dest_id=347441&amp;owner_id=347441&amp;property_country=IT&amp;at=api&amp;eplId=6005315&amp;upat=2023-08-16T13%3A20%3A49.947480%2B00%3A00</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2481,7 +2481,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-4301108&amp;guests=2&amp;search_string=Lisbon,%20Portugal&amp;referrer_page=home&amp;menu_id=1733889050463&amp;referral_id=5-BC-4301108&amp;published=true&amp;dest_id=4301108&amp;owner_id=4301108&amp;property_country=PT&amp;at=api&amp;eplId=6145187&amp;upat=2024-01-23T09%3A07%3A22.472222%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-80506&amp;guests=2&amp;search_string=Venice,%20Italy&amp;referrer_page=home&amp;menu_id=1733889826822&amp;referral_id=5-BC-80506&amp;published=true&amp;dest_id=80506&amp;owner_id=80506&amp;property_country=IT&amp;at=api&amp;eplId=6005315&amp;upat=2023-08-16T13%3A31%3A35.871468%2B00%3A00</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2503,7 +2503,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/property/ver-bel%C3%A9m-suites/BC-4301108</t>
+          <t>https://www.alojamiento.io/property/locanda-art-deco/BC-80506</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2525,7 +2525,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/portugal/lisbon-district</t>
+          <t>https://www.alojamiento.io/all/italy/veneto/venice/179981</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2547,7 +2547,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/portugal/lisbon-district/belem</t>
+          <t>https://www.alojamiento.io/all/italy/veneto/venice/san-marco</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2569,7 +2569,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-4301108&amp;guests=2&amp;search_string=Lisbon,%20Portugal&amp;referrer_page=home&amp;menu_id=1733889050463&amp;referral_id=5-BC-4301108&amp;published=true&amp;dest_id=4301108&amp;owner_id=4301108&amp;property_country=PT&amp;at=api&amp;eplId=6145187&amp;upat=2024-01-23T09%3A07%3A22.472222%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-80506&amp;guests=2&amp;search_string=Venice,%20Italy&amp;referrer_page=home&amp;menu_id=1733889826822&amp;referral_id=5-BC-80506&amp;published=true&amp;dest_id=80506&amp;owner_id=80506&amp;property_country=IT&amp;at=api&amp;eplId=6005315&amp;upat=2023-08-16T13%3A31%3A35.871468%2B00%3A00</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2591,7 +2591,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-4301108&amp;guests=2&amp;search_string=Lisbon,%20Portugal&amp;referrer_page=home&amp;menu_id=1733889050463&amp;referral_id=5-BC-4301108&amp;published=true&amp;dest_id=4301108&amp;owner_id=4301108&amp;property_country=PT&amp;at=api&amp;eplId=6145187&amp;upat=2024-01-23T09%3A07%3A22.472222%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-80506&amp;guests=2&amp;search_string=Venice,%20Italy&amp;referrer_page=home&amp;menu_id=1733889826822&amp;referral_id=5-BC-80506&amp;published=true&amp;dest_id=80506&amp;owner_id=80506&amp;property_country=IT&amp;at=api&amp;eplId=6005315&amp;upat=2023-08-16T13%3A31%3A35.871468%2B00%3A00</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4080,7 +4080,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7cb0647316d0&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
+          <t>Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Read timed out. (read timeout=10)</t>
         </is>
       </c>
     </row>

--- a/vacation-rental-testing/src/Output/vacation_rental_test_report.xlsx
+++ b/vacation-rental-testing/src/Output/vacation_rental_test_report.xlsx
@@ -541,7 +541,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7763fca2b9e0&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
+          <t>Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7768c59a34a0&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
         </is>
       </c>
     </row>
@@ -563,7 +563,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Read timed out. (read timeout=10)</t>
+          <t>Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7768c59d1e20&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7763fca2b9e0&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
+          <t>Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7768c59a34a0&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
         </is>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/italy/veneto/venice</t>
+          <t>https://www.alojamiento.io/all/morocco/marrakech-safi/marrakech</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1535,7 +1535,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/portugal/porto-district/porto</t>
+          <t>https://www.alojamiento.io/all/spain/valencian-community/benidorm</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1557,7 +1557,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/andorra/andorra-la-vella/andorra-la-vella</t>
+          <t>https://www.alojamiento.io/all/spain/balearic-islands/palma-de-mallorca</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1579,7 +1579,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/spain/catalonia/barcelona</t>
+          <t>https://www.alojamiento.io/all/portugal/lisbon-district/lisbon</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1623,7 +1623,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/spain/balearic-islands/palma-de-mallorca</t>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1645,7 +1645,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/spain/valencian-community/benidorm</t>
+          <t>https://www.alojamiento.io/all/andorra/andorra-la-vella/andorra-la-vella</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1667,7 +1667,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/spain/andalusia/seville</t>
+          <t>https://www.alojamiento.io/all/italy/veneto/venice</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1689,7 +1689,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid</t>
+          <t>https://www.alojamiento.io/all/portugal/porto-district/porto</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1711,7 +1711,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/france/provence</t>
+          <t>https://www.alojamiento.io/all/spain/catalonia/barcelona</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1733,7 +1733,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/portugal/algarve</t>
+          <t>https://www.alojamiento.io/all/france/provence</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1755,7 +1755,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/portugal/lisbon-district/lisbon</t>
+          <t>https://www.alojamiento.io/all/spain/andalusia/seville</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1799,7 +1799,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/morocco/marrakech-safi/marrakech</t>
+          <t>https://www.alojamiento.io/all/portugal/algarve</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1821,7 +1821,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-2110069&amp;guests=2&amp;search_string=Venice,%20Italy&amp;referrer_page=home&amp;menu_id=1733889826822&amp;referral_id=0-BC-2110069&amp;published=true&amp;dest_id=2110069&amp;owner_id=2110069&amp;property_country=IT&amp;at=api&amp;eplId=6049646&amp;upat=2023-08-16T13%3A11%3A36.422046%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-2033030&amp;guests=2&amp;search_string=Marrakech,%20Morocco&amp;referrer_page=home&amp;menu_id=1733891179662&amp;referral_id=0-BC-2033030&amp;published=true&amp;dest_id=2033030&amp;owner_id=2033030&amp;property_country=MA&amp;at=api&amp;eplId=3000665143&amp;upat=2023-10-30T06%3A17%3A21.129779%2B00%3A00</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1843,7 +1843,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/property/accademia-terrazza/BC-2110069</t>
+          <t>https://www.alojamiento.io/property/holiday-home-derb-koudiya/BC-2033030</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1865,7 +1865,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/italy/veneto/venice/179981</t>
+          <t>https://www.alojamiento.io/all/morocco/marrakech-safi/marrakech</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1887,7 +1887,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/italy/veneto/venice/dorsoduro</t>
+          <t>https://www.alojamiento.io/all/morocco/marrakech-safi/marrakech/mechouar-kasbah</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1909,7 +1909,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-2110069&amp;guests=2&amp;search_string=Venice,%20Italy&amp;referrer_page=home&amp;menu_id=1733889826822&amp;referral_id=0-BC-2110069&amp;published=true&amp;dest_id=2110069&amp;owner_id=2110069&amp;property_country=IT&amp;at=api&amp;eplId=6049646&amp;upat=2023-08-16T13%3A11%3A36.422046%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-2033030&amp;guests=2&amp;search_string=Marrakech,%20Morocco&amp;referrer_page=home&amp;menu_id=1733891179662&amp;referral_id=0-BC-2033030&amp;published=true&amp;dest_id=2033030&amp;owner_id=2033030&amp;property_country=MA&amp;at=api&amp;eplId=3000665143&amp;upat=2023-10-30T06%3A17%3A21.129779%2B00%3A00</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1931,7 +1931,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-2110069&amp;guests=2&amp;search_string=Venice,%20Italy&amp;referrer_page=home&amp;menu_id=1733889826822&amp;referral_id=0-BC-2110069&amp;published=true&amp;dest_id=2110069&amp;owner_id=2110069&amp;property_country=IT&amp;at=api&amp;eplId=6049646&amp;upat=2023-08-16T13%3A11%3A36.422046%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-2033030&amp;guests=2&amp;search_string=Marrakech,%20Morocco&amp;referrer_page=home&amp;menu_id=1733891179662&amp;referral_id=0-BC-2033030&amp;published=true&amp;dest_id=2033030&amp;owner_id=2033030&amp;property_country=MA&amp;at=api&amp;eplId=3000665143&amp;upat=2023-10-30T06%3A17%3A21.129779%2B00%3A00</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1953,7 +1953,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-61111682273&amp;guests=2&amp;search_string=Dorsoduro,%20Venice,%20Veneto,%20Italy&amp;referrer_page=home&amp;menu_id=1733889826822&amp;referral_id=1-HA-61111682273&amp;published=true&amp;dest_id=109818346&amp;owner_id=109818346&amp;property_country=IT&amp;at=api&amp;eplId=6049646&amp;epc=c001&amp;upat=2024-11-28T06%3A16%3A06.469811%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-3214245941&amp;guests=2&amp;search_string=Medina,%20Marrakech,%20Marrakech-Safi,%20Morocco&amp;referrer_page=home&amp;menu_id=1733891179662&amp;referral_id=1-HA-3214245941&amp;published=true&amp;dest_id=109851787&amp;owner_id=109851787&amp;property_country=MA&amp;at=api&amp;eplId=6084765&amp;epc=c001&amp;upat=2024-11-22T23%3A38%3A26.141234%2B00%3A00</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1975,7 +1975,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/property/dimora-orlando-with-private-courtyard/HA-61111682273</t>
+          <t>https://www.alojamiento.io/property/riad-des-oiseaux-medina-luxury/HA-3214245941</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1997,7 +1997,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/italy/veneto/venice/179981</t>
+          <t>https://www.alojamiento.io/all/morocco/marrakech-safi/marrakech</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2019,7 +2019,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/italy/veneto/venice/dorsoduro</t>
+          <t>https://www.alojamiento.io/all/morocco/marrakech-safi/marrakech/medina</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2041,7 +2041,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-61111682273&amp;guests=2&amp;search_string=Dorsoduro,%20Venice,%20Veneto,%20Italy&amp;referrer_page=home&amp;menu_id=1733889826822&amp;referral_id=1-HA-61111682273&amp;published=true&amp;dest_id=109818346&amp;owner_id=109818346&amp;property_country=IT&amp;at=api&amp;eplId=6049646&amp;epc=c001&amp;upat=2024-11-28T06%3A16%3A06.469811%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-3214245941&amp;guests=2&amp;search_string=Medina,%20Marrakech,%20Marrakech-Safi,%20Morocco&amp;referrer_page=home&amp;menu_id=1733891179662&amp;referral_id=1-HA-3214245941&amp;published=true&amp;dest_id=109851787&amp;owner_id=109851787&amp;property_country=MA&amp;at=api&amp;eplId=6084765&amp;epc=c001&amp;upat=2024-11-22T23%3A38%3A26.141234%2B00%3A00</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2063,7 +2063,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-61111682273&amp;guests=2&amp;search_string=Dorsoduro,%20Venice,%20Veneto,%20Italy&amp;referrer_page=home&amp;menu_id=1733889826822&amp;referral_id=1-HA-61111682273&amp;published=true&amp;dest_id=109818346&amp;owner_id=109818346&amp;property_country=IT&amp;at=api&amp;eplId=6049646&amp;epc=c001&amp;upat=2024-11-28T06%3A16%3A06.469811%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-3214245941&amp;guests=2&amp;search_string=Medina,%20Marrakech,%20Marrakech-Safi,%20Morocco&amp;referrer_page=home&amp;menu_id=1733891179662&amp;referral_id=1-HA-3214245941&amp;published=true&amp;dest_id=109851787&amp;owner_id=109851787&amp;property_country=MA&amp;at=api&amp;eplId=6084765&amp;epc=c001&amp;upat=2024-11-22T23%3A38%3A26.141234%2B00%3A00</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2085,7 +2085,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-5091527&amp;guests=2&amp;search_string=Venice,%20Italy&amp;referrer_page=home&amp;menu_id=1733889826822&amp;referral_id=2-BC-5091527&amp;published=true&amp;dest_id=5091527&amp;owner_id=5091527&amp;property_country=IT&amp;at=api&amp;eplId=6046564&amp;upat=2023-08-22T05%3A46%3A33.996030%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-1495950&amp;guests=2&amp;search_string=Agdal,%20Marrakech,%20Marrakech-Safi,%20Morocco&amp;referrer_page=home&amp;menu_id=1733891179662&amp;referral_id=2-BC-1495950&amp;published=true&amp;dest_id=1495950&amp;owner_id=1495950&amp;property_country=MA&amp;at=api&amp;eplId=6130066&amp;upat=2023-08-16T15%3A58%3A56.220465%2B00%3A00</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2107,7 +2107,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/property/ca-roberta/BC-5091527</t>
+          <t>https://www.alojamiento.io/property/villa-dar-cocoon/BC-1495950</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2129,7 +2129,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/italy/veneto/venice/179981</t>
+          <t>https://www.alojamiento.io/all/morocco/marrakech-safi/marrakech</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2151,7 +2151,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/italy/veneto/venice/santa-croce</t>
+          <t>https://www.alojamiento.io/all/morocco/marrakech-safi/marrakech/agdal</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2173,7 +2173,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-5091527&amp;guests=2&amp;search_string=Venice,%20Italy&amp;referrer_page=home&amp;menu_id=1733889826822&amp;referral_id=2-BC-5091527&amp;published=true&amp;dest_id=5091527&amp;owner_id=5091527&amp;property_country=IT&amp;at=api&amp;eplId=6046564&amp;upat=2023-08-22T05%3A46%3A33.996030%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-1495950&amp;guests=2&amp;search_string=Agdal,%20Marrakech,%20Marrakech-Safi,%20Morocco&amp;referrer_page=home&amp;menu_id=1733891179662&amp;referral_id=2-BC-1495950&amp;published=true&amp;dest_id=1495950&amp;owner_id=1495950&amp;property_country=MA&amp;at=api&amp;eplId=6130066&amp;upat=2023-08-16T15%3A58%3A56.220465%2B00%3A00</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2195,7 +2195,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-5091527&amp;guests=2&amp;search_string=Venice,%20Italy&amp;referrer_page=home&amp;menu_id=1733889826822&amp;referral_id=2-BC-5091527&amp;published=true&amp;dest_id=5091527&amp;owner_id=5091527&amp;property_country=IT&amp;at=api&amp;eplId=6046564&amp;upat=2023-08-22T05%3A46%3A33.996030%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-1495950&amp;guests=2&amp;search_string=Agdal,%20Marrakech,%20Marrakech-Safi,%20Morocco&amp;referrer_page=home&amp;menu_id=1733891179662&amp;referral_id=2-BC-1495950&amp;published=true&amp;dest_id=1495950&amp;owner_id=1495950&amp;property_country=MA&amp;at=api&amp;eplId=6130066&amp;upat=2023-08-16T15%3A58%3A56.220465%2B00%3A00</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2217,7 +2217,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-447633&amp;guests=2&amp;search_string=Venice,%20Italy&amp;referrer_page=home&amp;menu_id=1733889826822&amp;referral_id=3-BC-447633&amp;published=true&amp;dest_id=447633&amp;owner_id=447633&amp;property_country=IT&amp;at=api&amp;eplId=6005309&amp;upat=2023-08-16T13%3A07%3A15.880032%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-2080064&amp;guests=2&amp;search_string=Tahannout,%20Morocco&amp;referrer_page=home&amp;menu_id=1733891179662&amp;referral_id=3-BC-2080064&amp;published=true&amp;dest_id=2080064&amp;owner_id=2080064&amp;property_country=MA&amp;at=api&amp;eplId=553248635519419336&amp;upat=2023-12-04T11%3A52%3A20.814615%2B00%3A00</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2239,7 +2239,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/property/appartamenti-del-dose/BC-447633</t>
+          <t>https://www.alojamiento.io/property/dar-aicha/BC-2080064</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2261,7 +2261,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/italy/veneto/venice/179981</t>
+          <t>https://www.alojamiento.io/all/morocco/marrakech-safi/marrakech</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2283,7 +2283,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/italy/veneto/venice/cannaregio</t>
+          <t>https://www.alojamiento.io/all/morocco/marrakech-safi/aghouatim</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2305,7 +2305,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-447633&amp;guests=2&amp;search_string=Venice,%20Italy&amp;referrer_page=home&amp;menu_id=1733889826822&amp;referral_id=3-BC-447633&amp;published=true&amp;dest_id=447633&amp;owner_id=447633&amp;property_country=IT&amp;at=api&amp;eplId=6005309&amp;upat=2023-08-16T13%3A07%3A15.880032%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-2080064&amp;guests=2&amp;search_string=Tahannout,%20Morocco&amp;referrer_page=home&amp;menu_id=1733891179662&amp;referral_id=3-BC-2080064&amp;published=true&amp;dest_id=2080064&amp;owner_id=2080064&amp;property_country=MA&amp;at=api&amp;eplId=553248635519419336&amp;upat=2023-12-04T11%3A52%3A20.814615%2B00%3A00</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2327,7 +2327,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-447633&amp;guests=2&amp;search_string=Venice,%20Italy&amp;referrer_page=home&amp;menu_id=1733889826822&amp;referral_id=3-BC-447633&amp;published=true&amp;dest_id=447633&amp;owner_id=447633&amp;property_country=IT&amp;at=api&amp;eplId=6005309&amp;upat=2023-08-16T13%3A07%3A15.880032%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-2080064&amp;guests=2&amp;search_string=Tahannout,%20Morocco&amp;referrer_page=home&amp;menu_id=1733891179662&amp;referral_id=3-BC-2080064&amp;published=true&amp;dest_id=2080064&amp;owner_id=2080064&amp;property_country=MA&amp;at=api&amp;eplId=553248635519419336&amp;upat=2023-12-04T11%3A52%3A20.814615%2B00%3A00</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2349,7 +2349,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-347441&amp;guests=2&amp;search_string=Venice,%20Italy&amp;referrer_page=home&amp;menu_id=1733889826822&amp;referral_id=4-BC-347441&amp;published=true&amp;dest_id=347441&amp;owner_id=347441&amp;property_country=IT&amp;at=api&amp;eplId=6005315&amp;upat=2023-08-16T13%3A20%3A49.947480%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-5850177&amp;guests=2&amp;search_string=Marrakech,%20Morocco&amp;referrer_page=home&amp;menu_id=1733891179662&amp;referral_id=4-BC-5850177&amp;published=true&amp;dest_id=5850177&amp;owner_id=5850177&amp;property_country=MA&amp;at=api&amp;eplId=6153358&amp;upat=2023-08-16T15%3A57%3A56.015905%2B00%3A00</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2371,7 +2371,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/property/locanda-delle-acque/BC-347441</t>
+          <t>https://www.alojamiento.io/property/dar-gonzo-resort-spa/BC-5850177</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2393,7 +2393,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/italy/veneto/venice/179981</t>
+          <t>https://www.alojamiento.io/all/morocco/marrakech-safi/marrakech</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2415,7 +2415,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/italy/veneto/venice/san-marco</t>
+          <t>https://www.alojamiento.io/all/morocco/marrakech-safi/tameslouht</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2437,7 +2437,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-347441&amp;guests=2&amp;search_string=Venice,%20Italy&amp;referrer_page=home&amp;menu_id=1733889826822&amp;referral_id=4-BC-347441&amp;published=true&amp;dest_id=347441&amp;owner_id=347441&amp;property_country=IT&amp;at=api&amp;eplId=6005315&amp;upat=2023-08-16T13%3A20%3A49.947480%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-5850177&amp;guests=2&amp;search_string=Marrakech,%20Morocco&amp;referrer_page=home&amp;menu_id=1733891179662&amp;referral_id=4-BC-5850177&amp;published=true&amp;dest_id=5850177&amp;owner_id=5850177&amp;property_country=MA&amp;at=api&amp;eplId=6153358&amp;upat=2023-08-16T15%3A57%3A56.015905%2B00%3A00</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2459,7 +2459,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-347441&amp;guests=2&amp;search_string=Venice,%20Italy&amp;referrer_page=home&amp;menu_id=1733889826822&amp;referral_id=4-BC-347441&amp;published=true&amp;dest_id=347441&amp;owner_id=347441&amp;property_country=IT&amp;at=api&amp;eplId=6005315&amp;upat=2023-08-16T13%3A20%3A49.947480%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-5850177&amp;guests=2&amp;search_string=Marrakech,%20Morocco&amp;referrer_page=home&amp;menu_id=1733891179662&amp;referral_id=4-BC-5850177&amp;published=true&amp;dest_id=5850177&amp;owner_id=5850177&amp;property_country=MA&amp;at=api&amp;eplId=6153358&amp;upat=2023-08-16T15%3A57%3A56.015905%2B00%3A00</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2481,7 +2481,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-80506&amp;guests=2&amp;search_string=Venice,%20Italy&amp;referrer_page=home&amp;menu_id=1733889826822&amp;referral_id=5-BC-80506&amp;published=true&amp;dest_id=80506&amp;owner_id=80506&amp;property_country=IT&amp;at=api&amp;eplId=6005315&amp;upat=2023-08-16T13%3A31%3A35.871468%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-4497553&amp;guests=2&amp;search_string=Tameslouht,%20Marrakech-Safi,%20Morocco&amp;referrer_page=home&amp;menu_id=1733891179662&amp;referral_id=5-BC-4497553&amp;published=true&amp;dest_id=4497553&amp;owner_id=4497553&amp;property_country=MA&amp;at=api&amp;eplId=6153358&amp;upat=2023-08-16T15%3A58%3A56.217764%2B00%3A00</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2503,7 +2503,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/property/locanda-art-deco/BC-80506</t>
+          <t>https://www.alojamiento.io/property/palais-medali/BC-4497553</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2525,7 +2525,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/italy/veneto/venice/179981</t>
+          <t>https://www.alojamiento.io/all/morocco/marrakech-safi/marrakech</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2547,7 +2547,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/italy/veneto/venice/san-marco</t>
+          <t>https://www.alojamiento.io/all/morocco/marrakech-safi/tameslouht</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2569,7 +2569,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-80506&amp;guests=2&amp;search_string=Venice,%20Italy&amp;referrer_page=home&amp;menu_id=1733889826822&amp;referral_id=5-BC-80506&amp;published=true&amp;dest_id=80506&amp;owner_id=80506&amp;property_country=IT&amp;at=api&amp;eplId=6005315&amp;upat=2023-08-16T13%3A31%3A35.871468%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-4497553&amp;guests=2&amp;search_string=Tameslouht,%20Marrakech-Safi,%20Morocco&amp;referrer_page=home&amp;menu_id=1733891179662&amp;referral_id=5-BC-4497553&amp;published=true&amp;dest_id=4497553&amp;owner_id=4497553&amp;property_country=MA&amp;at=api&amp;eplId=6153358&amp;upat=2023-08-16T15%3A58%3A56.217764%2B00%3A00</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2591,7 +2591,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-80506&amp;guests=2&amp;search_string=Venice,%20Italy&amp;referrer_page=home&amp;menu_id=1733889826822&amp;referral_id=5-BC-80506&amp;published=true&amp;dest_id=80506&amp;owner_id=80506&amp;property_country=IT&amp;at=api&amp;eplId=6005315&amp;upat=2023-08-16T13%3A31%3A35.871468%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-4497553&amp;guests=2&amp;search_string=Tameslouht,%20Marrakech-Safi,%20Morocco&amp;referrer_page=home&amp;menu_id=1733891179662&amp;referral_id=5-BC-4497553&amp;published=true&amp;dest_id=4497553&amp;owner_id=4497553&amp;property_country=MA&amp;at=api&amp;eplId=6153358&amp;upat=2023-08-16T15%3A58%3A56.217764%2B00%3A00</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4080,7 +4080,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Read timed out. (read timeout=10)</t>
+          <t>Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7768c59d1e20&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
         </is>
       </c>
     </row>
